--- a/medicine/Enfance/Prix_Bernard_Versele/Prix_Bernard_Versele.xlsx
+++ b/medicine/Enfance/Prix_Bernard_Versele/Prix_Bernard_Versele.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix Bernard Versele de la ligue des familles de Bruxelles est un prix littéraire récompensant les œuvres de littérature d'enfance et de jeunesse. Il a été créé en 1979 en hommage à Bernard Versele. Il récompense des ouvrages choisis par un jury composé d'enfants de 3 à 13 ans. Ils étaient 46 000 à participer à ce choix en 2013[1], 42 000 en 2014[2], et 34 000 en 2021[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix Bernard Versele de la ligue des familles de Bruxelles est un prix littéraire récompensant les œuvres de littérature d'enfance et de jeunesse. Il a été créé en 1979 en hommage à Bernard Versele. Il récompense des ouvrages choisis par un jury composé d'enfants de 3 à 13 ans. Ils étaient 46 000 à participer à ce choix en 2013, 42 000 en 2014, et 34 000 en 2021.
 Il existe cinq catégories :
 une chouette (jusqu'à 4 ans)
 deux chouettes (4-6 ans)
@@ -517,9 +529,11 @@
           <t>Reconnaissance internationale du prix</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Prix Bernard Versele est sélectionné à plusieurs reprises par le prestigieux prix international suédois, le Prix commémoratif Astrid-Lindgren, en 2012, 2013, 2014, 2019 et 2020[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Prix Bernard Versele est sélectionné à plusieurs reprises par le prestigieux prix international suédois, le Prix commémoratif Astrid-Lindgren, en 2012, 2013, 2014, 2019 et 2020.
 </t>
         </is>
       </c>
@@ -548,20 +562,57 @@
           <t>Quelques lauréats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Quelques livres et auteurs récompensés[5].
-Années 2000
-2000 : Chris Donner, illustré par Alex Sanders, Mon affreux papa (L’École des loisirs) (3 chouettes)[6]
-2002 : Pascal Teulade, illustré par Jean-Charles Sarrazin, Bonjour Madame la Mort (L’École des loisirs)[7]
-2003[8] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quelques livres et auteurs récompensés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Prix_Bernard_Versele</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Bernard_Versele</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Quelques lauréats</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2000 : Chris Donner, illustré par Alex Sanders, Mon affreux papa (L’École des loisirs) (3 chouettes)
+2002 : Pascal Teulade, illustré par Jean-Charles Sarrazin, Bonjour Madame la Mort (L’École des loisirs)
+2003 :
 Mario Ramos, C'est moi le plus fort (L’École des loisirs) (1 chouette)
 Christian Voltz, C'est pas ma faute ! (Éditions du Rouergue) (2 chouettes)
 Roald Dahl, illustré par Quentin Blake, L'Énorme Crocodile (Gallimard, Folio benjamin) (3 chouettes)
-2004[9] :
+2004 :
 Jean-Jacques Greif, Mes enfants, c'est la guerre (L'Ecole des Loisirs) (5 chouettes)
 Vincent Cuvellier, La Chauffeuse de bus (Le Rouergue) (4 chouettes)
-Agnès Desarthe, illustré par Claude Ponti, Petit prince Pouf (L’École des loisirs) (3 chouettes)[10]
+Agnès Desarthe, illustré par Claude Ponti, Petit prince Pouf (L’École des loisirs) (3 chouettes)
 Jean Gourounas, Avis de tempête, éditions du Rouergue (2 chouettes)
 2005 :
 Jean-Claude Mourlevat, L'Homme à l'oreille coupée (Éditions Thierry Magnier) (4 chouettes)
@@ -572,50 +623,84 @@
 Jean-Claude Mourlevat, La Troisième Vengeance de Robert Poutifard, (Gallimard) (5 chouettes)
 Vincent Cuvellier, Charles Dutertre, Tu parles, Charles (Le Rouergue) (4 chouettes)
 Anthony Browne, Ourson et la Ville, (Kaléidoscope) (2 chouettes)
-2007[11] :
+2007 :
 Jean-François Chabas, L’eau verte (5 chouettes)
 Chen Jianghong, Petit Aigle (4 chouettes)
 Lena Landström, illustrations Olof Landström, Quatre poules et un coq (2 chouettes)
 Catharina Valckx, Coco panache (1 chouette)
-2008[12] :
+2008 :
 Mario Ramos, Loup, Loup, y es-tu ?, (L’École des loisirs) (1 chouette)
 Mario Ramos, Un monde de cochons, (L'École des loisirs) (2 chouettes)
 Max Ducos,  Jeu de piste à Volubilis  (Sarbacane) (3 chouettes)
 2009 :
 Valérie Zenatti, Adieu, mes 9 ans ! (L'Ecole des Loisirs) (4 chouettes)
-Davide Cali, ill. Serge Bloch, L'ennemi (Sarbacane)  (5 chouettes)
-Années 2010
-2010 :
+Davide Cali, ill. Serge Bloch, L'ennemi (Sarbacane)  (5 chouettes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Prix_Bernard_Versele</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Bernard_Versele</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Quelques lauréats</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2010 :
 Emily Gravett pour Drôle d'oeuf (Kaléidoscope) (1 chouette)
-Sylvain Victor, Michel le mouton qui n’avait pas de chance (Editions Thierry Magnier) (3 Chouettes)[13].
-2011[14] :
+Sylvain Victor, Michel le mouton qui n’avait pas de chance (Editions Thierry Magnier) (3 Chouettes).
+2011 :
 Benoît Jacques, La Nuit du visiteur (éditions Benoît Jacques books) (3 chouettes)
 Jean-Luc Fromental et Joëlle Jolivet, Oups !, (Hélium) (4 chouettes)
 Brian Selznick, L'Invention de Hugo Cabret (Bayard Jeunesse) (5 chouettes)
-2012 : Hervé Tullet, Un livre (Bayard jeunesse 2010) (1 chouette)[15]
-2013[16] :
+2012 : Hervé Tullet, Un livre (Bayard jeunesse 2010) (1 chouette)
+2013 :
 Christophe Nicolas et Guillaume Long, Tétine Man, Didier Jeunesse (2 chouettes)
 Philippe Lechermeier et Delphine Perret, Lettres à plumes et poils, Editions Thierry Magnier (4 chouettes)
 Marie Desplechin, Babyfaces, École des loisirs (5 chouettes)
-2014[2] :
+2014 :
 Stephen Savage, Morse où es-tu ?, Pastel, l’École des loisirs (1 chouette)
 Dennis Nolan, Rêves d'Océan, Petite Plume de carotte (2 chouettes)
 Bill Thomson, Dessine !, L'École des loisirs (3 chouettes)
 Bertrand Santini et Laurent Gapaillard, Le Yark, Grasset Jeunesse, coll. Lecteurs en herbe (4 chouettes)
 Christophe Léon, Le Goût de la tomate, Éditions Thierry Magnier, coll. Petite Poche (5 chouettes)
-2015[17]
+2015
 Lucie Félix, 2 yeux ?, Les Grandes Personnes (1 chouette)
 Koen Van Biesen, Le voisin lit un livre, Alice Jeunesse (Trad. du néerlandais par Midigiri) (2 chouettes)
 Matthieu Sylvander, ill. de Perceval Barrier, 3 contes cruels, L’École des loisirs (3 chouettes)
 Michael Morpurgo, Mauvais garçon, Gallimard Jeunesse (trad. de l’anglais par Diane Ménard) (4 chouettes)
 Davide Cali, L’amour ? C’est mathématique !, Sarbacane (5 chouettes)
-2016[18]
+2016
 Chris Haughton, Un peu perdu, Éditions Thierry Magnier (1 chouette)
 Chris Haughton, Chut ! On a un plan, Éditions Thierry Magnier (2 chouettes)
 Thomas Bretonneau, ill. Perceval Barrier, Les trois pires histoires de pirates, L’école des loisirs (3 chouettes)
 Géraldine Elschner, ill. Antoine Guilloppé, Tout d’un loup, L’élan vert (4 chouettes)
 Morris Gleitzman, Temps de chien pour les requins, Les Grandes Personnes (5 chouettes)
-2017[19]
+2017
 Dorothée de Monfreid, Dodo, Lécole des loisirs (1 chouette)
 Delphine Bournay, Le concours de force, L'école des loisirs (2 chouettes)
 Claire Lebourg, Une journée avec Mousse, L'école des loisirs (3 chouette)
@@ -627,20 +712,54 @@
 Catharina Valckx, ill. Nicolas Hubesch, Bruno. Quelques jours de ma vie très intéressante, L'école des loisirs (3 chouettes)
 Håkon Øvreås, ill. Øyvind Torseter, Maarron, trad. du norvégien par Aude Pasquier, La Joie de Lire (4 chouettes)
 Rémi Farnos, Alcibiade, La Joie de Lire (5 chouettes)
-2019[20] :
+2019 :
 Andrée Prigent, Poto le chien, Didier Jeunesse (1 Chouette)
 Magali Arnal, Capitaine Maman, l'école des loisirs (2 Chouettes)
 Gaëtan Dorémus,  Minute papillon !, Rouergue (3 Chouettes)
 Guillaume Guéraud, Ma grand-mère est une terreur, Rouergue (4 Chouettes)
-Jakob Wegelius, Sally Jones, la grande aventure, éditions Thierry Magnier (5 Chouettes)
-Années 2020
-2020[21]
+Jakob Wegelius, Sally Jones, la grande aventure, éditions Thierry Magnier (5 Chouettes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Prix_Bernard_Versele</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Bernard_Versele</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Quelques lauréats</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Années 2020</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2020
 Tarō Gomi, Enfin avec ma mamie ! , Nobi Nobi (1 Chouette)
 Aaron Reynolds (texte) et Peter Brown (illustrations), Menace verte, Le Genévrier (2 Chouettes)
 Adrien Albert, Claude et Morino, L'école des loisirs (3 Chouettes)
 Delphine Perret, Une super histoire de cow-boy, Les fourmis rouges (4 Chouettes)
 Jean-Claude Mourlevat (texte) et Antoine Ronzon (illustrations), Jefferson, Gallimard Jeunesse (5 Chouettes)
-2021[22]
+2021
 Émilie Vast, Moi, j’ai peur du loup, éditions MeMo (1 chouette)
 Brian Lies, Le Jardin d’Evan, Albin Michel Jeunesse (2 chouettes)
 Muriel Bloch et Marie Novion,  Coyote et le chant des larmes, Seuil jeunesse (3 chouettes)
